--- a/epic-spread-sheet.xlsx
+++ b/epic-spread-sheet.xlsx
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,30 +122,6 @@
           </rPr>
           <t xml:space="preserve">
 Weapon/Repairing/Hull-Upgrade/Speed-Upgrade</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bernd Paulus (RIT Student):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Value depending on type of item</t>
         </r>
       </text>
     </comment>
@@ -169,7 +145,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Costs in ISK</t>
+Value depending on type of item</t>
         </r>
       </text>
     </comment>
@@ -193,11 +169,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Range of Weapons</t>
+Costs in ISK</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bernd Paulus (RIT Student):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Range of Weapons</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,30 +242,6 @@
           </rPr>
           <t xml:space="preserve">
 To shop or not to shop.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bernd Paulus (RIT Student):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Start Ship</t>
         </r>
       </text>
     </comment>
@@ -289,11 +265,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Buyable in a shop</t>
+Start Ship</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bernd Paulus (RIT Student):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Buyable in a shop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +341,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Bernd Paulus (RIT Student):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hard value=750?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +389,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Bernd Paulus (RIT Student):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+hard value 2000?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -386,6 +434,30 @@
           </rPr>
           <t xml:space="preserve">
 for 5 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Bernd Paulus (RIT Student):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jump from one point in space to another</t>
         </r>
       </text>
     </comment>
@@ -394,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>Ships</t>
   </si>
@@ -582,7 +654,37 @@
     <t>Value+Range*</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Expert Ship</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>Ship  Shop</t>
+  </si>
+  <si>
+    <t>Minion 2</t>
+  </si>
+  <si>
+    <t>Fogg Damage</t>
+  </si>
+  <si>
+    <t>Reward for every destroyed minion 2</t>
+  </si>
+  <si>
+    <t>Expert Missle</t>
+  </si>
+  <si>
+    <t>Expert Laser</t>
+  </si>
+  <si>
+    <t>Expert MAHEM</t>
   </si>
 </sst>
 </file>
@@ -661,12 +763,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,49 +1050,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1002,47 +1107,50 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1056,239 +1164,278 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="3">
+        <v>400</v>
+      </c>
+      <c r="J3" s="3">
         <v>50</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="3">
         <v>15</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>1000</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3">
+        <f>(H4+J4-50)*I27</f>
+        <v>2600</v>
+      </c>
+      <c r="J4" s="3">
         <v>100</v>
       </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3">
         <v>15</v>
       </c>
-      <c r="H4" s="3">
-        <f>(G4+I4)*H25</f>
-        <v>4600</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="N4" s="3">
         <v>100</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3">
-        <v>15</v>
-      </c>
-      <c r="M4" s="3">
-        <v>100</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <f>(B5*I24)+(C5*I25)+(D5*I26)</f>
+        <v>2300</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
+      <c r="I5" s="3">
+        <f>(H5+J5-50)*I27</f>
+        <v>4800</v>
+      </c>
+      <c r="J5" s="3">
+        <v>150</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="3">
+        <v>20</v>
+      </c>
+      <c r="N5" s="3">
         <v>250</v>
       </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3">
-        <f>(G5+I5)*H25</f>
-        <v>6680</v>
-      </c>
-      <c r="I5" s="3">
-        <v>150</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3">
-        <v>250</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>250</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <f>(B6*I24)+(C6*I25)+(D6*I26)</f>
+        <v>4150</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3">
-        <f>(G6+I6)*H25</f>
-        <v>3200</v>
-      </c>
-      <c r="I6" s="3">
-        <v>60</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="5">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <f>(H6+J6-50)*I27</f>
+        <v>6000</v>
+      </c>
+      <c r="J6" s="5">
+        <v>150</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5">
+        <v>500</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <f>(B7*I24)+(C7*I25)+(D7*K26)</f>
+        <v>8000</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>20</v>
       </c>
-      <c r="H7" s="3">
-        <f>(G7+I7)*H25</f>
-        <v>4000</v>
-      </c>
       <c r="I7" s="3">
-        <v>80</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+        <f>(H7+J7-50)*I27</f>
+        <v>1200</v>
+      </c>
+      <c r="J7" s="3">
+        <v>60</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3">
-        <v>50</v>
-      </c>
       <c r="H8" s="3">
-        <f>(G8+I8)*H25</f>
-        <v>2800</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3">
-        <v>20</v>
-      </c>
-      <c r="J8" s="3"/>
+        <f>(H8+J8-50)*I27</f>
+        <v>2000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>80</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1296,29 +1443,25 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3">
-        <v>80</v>
-      </c>
-      <c r="H9" s="3">
-        <f>(G9+I9)*H25</f>
-        <v>4400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>30</v>
-      </c>
-      <c r="J9" s="3"/>
+      <c r="H9" s="5">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <f>(H9+J9-50)*I27</f>
+        <v>4000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>100</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1326,29 +1469,30 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3">
         <v>50</v>
       </c>
-      <c r="H10" s="3">
-        <f>G10*H23</f>
-        <v>250</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3"/>
+      <c r="I10" s="3">
+        <f>(H10+J10-50)*I27</f>
+        <v>800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1356,29 +1500,30 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="3">
-        <f>G11*H23</f>
-        <v>500</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="I11" s="3">
+        <f>(H11+J11-50)*I27</f>
+        <v>2400</v>
+      </c>
+      <c r="J11" s="3">
+        <v>30</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1386,29 +1531,30 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <f>G12*H22</f>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="I12">
+        <f>(H12+J12-50)*I27</f>
+        <v>3400</v>
+      </c>
+      <c r="J12" s="5">
+        <v>35</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1416,29 +1562,30 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="3">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H13" s="3">
-        <f>G13*H22</f>
-        <v>200</v>
-      </c>
-      <c r="I13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3">
+        <f>H13*I25</f>
+        <v>250</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1446,28 +1593,30 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="3">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="3">
-        <v>50</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
+        <f>H14*I25</f>
+        <v>500</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1475,28 +1624,30 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <f>H15*I24</f>
+        <v>100</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1504,28 +1655,30 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3">
+        <f>H16*I24</f>
+        <v>200</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1533,28 +1686,29 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="H17" s="3">
-        <v>60</v>
-      </c>
-      <c r="I17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="3">
+        <v>50</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1562,18 +1716,29 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>750</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1581,18 +1746,29 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1601,107 +1777,186 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="3">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3">
+        <v>60</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="5">
+        <v>500</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G24" t="s">
         <v>3</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H24" t="s">
         <v>58</v>
       </c>
-      <c r="H22">
+      <c r="I24">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H25" t="s">
         <v>58</v>
       </c>
-      <c r="H23">
+      <c r="I25">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
         <v>57</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H26" t="s">
         <v>59</v>
       </c>
-      <c r="H24">
+      <c r="I26">
         <v>500</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J26" t="s">
         <v>60</v>
       </c>
-      <c r="J24">
+      <c r="K26">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
         <v>9</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H27" t="s">
         <v>61</v>
       </c>
-      <c r="H25">
+      <c r="I27">
         <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/epic-spread-sheet.xlsx
+++ b/epic-spread-sheet.xlsx
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,14 +1229,14 @@
         <v>32</v>
       </c>
       <c r="H4" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I4" s="3">
         <f>(H4+J4-50)*I27</f>
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="J4" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -1291,10 +1291,10 @@
       </c>
       <c r="I5" s="3">
         <f>(H5+J5-50)*I27</f>
-        <v>4800</v>
+        <v>2800</v>
       </c>
       <c r="J5" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>

--- a/epic-spread-sheet.xlsx
+++ b/epic-spread-sheet.xlsx
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1233,10 +1233,10 @@
       </c>
       <c r="I4" s="3">
         <f>(H4+J4-50)*I27</f>
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="J4" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
